--- a/merged_output.xlsx
+++ b/merged_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:AF57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +564,36 @@
           <t>2024</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Population</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Number_of_Layoffs</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Layoffs_per_Capita</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Number_of_Tech_Events</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -682,6 +712,28 @@
       <c r="Z2" t="n">
         <v>23596</v>
       </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Albuquerque, NM</t>
+        </is>
+      </c>
+      <c r="AB2" t="n">
+        <v>561188</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3464</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Albuquerque, NM</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -800,6 +852,28 @@
       <c r="Z3" t="n">
         <v>235268</v>
       </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Atlanta, GA</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>5234502</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15838</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.003025694</v>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Atlanta, GA</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>2937</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -918,6 +992,28 @@
       <c r="Z4" t="n">
         <v>190186</v>
       </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Austin, TX</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v>4391747</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1353</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.000308078</v>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Austin, TX</t>
+        </is>
+      </c>
+      <c r="AF4" t="n">
+        <v>996</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1036,6 +1132,28 @@
       <c r="Z5" t="n">
         <v>106852</v>
       </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Baltimore, MD</t>
+        </is>
+      </c>
+      <c r="AB5" t="n">
+        <v>5370385</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5677</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.001057094</v>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Baltimore, MD</t>
+        </is>
+      </c>
+      <c r="AF5" t="n">
+        <v>1857</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1154,6 +1272,28 @@
       <c r="Z6" t="n">
         <v>26592</v>
       </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Boise, ID</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v>7963697</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17464</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.002192951</v>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>Boise, ID</t>
+        </is>
+      </c>
+      <c r="AF6" t="n">
+        <v>951</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1272,6 +1412,28 @@
       <c r="Z7" t="n">
         <v>274023</v>
       </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Boston, MA</t>
+        </is>
+      </c>
+      <c r="AB7" t="n">
+        <v>736976</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>17458</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.023688695</v>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>Boston, MA</t>
+        </is>
+      </c>
+      <c r="AF7" t="n">
+        <v>1312</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1390,6 +1552,28 @@
       <c r="Z8" t="n">
         <v>25255</v>
       </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Buffalo, NY</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>8566999</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1581</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.000184545</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>Buffalo, NY</t>
+        </is>
+      </c>
+      <c r="AF8" t="n">
+        <v>1731</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1508,6 +1692,28 @@
       <c r="Z9" t="n">
         <v>20468</v>
       </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Charleston, SC</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>2033509</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13275</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.006528125</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Charleston, SC</t>
+        </is>
+      </c>
+      <c r="AF9" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1626,6 +1832,28 @@
       <c r="Z10" t="n">
         <v>20468</v>
       </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Charleston, SC</t>
+        </is>
+      </c>
+      <c r="AB10" t="n">
+        <v>2033509</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13275</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.006528125</v>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>Charleston, SC</t>
+        </is>
+      </c>
+      <c r="AF10" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1744,6 +1972,28 @@
       <c r="Z11" t="n">
         <v>93806</v>
       </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Charlotte, NC</t>
+        </is>
+      </c>
+      <c r="AB11" t="n">
+        <v>6374167</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>15702</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.002463381</v>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>Charlotte, NC</t>
+        </is>
+      </c>
+      <c r="AF11" t="n">
+        <v>2241</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1862,6 +2112,28 @@
       <c r="Z12" t="n">
         <v>93806</v>
       </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Charlotte, NC</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>6374167</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>15702</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.002463381</v>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>Charlotte, NC</t>
+        </is>
+      </c>
+      <c r="AF12" t="n">
+        <v>2241</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1980,6 +2252,28 @@
       <c r="Z13" t="n">
         <v>247935</v>
       </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Chicago, IL</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>1291082</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>5277</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.004087269</v>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Chicago, IL</t>
+        </is>
+      </c>
+      <c r="AF13" t="n">
+        <v>680</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2098,6 +2392,28 @@
       <c r="Z14" t="n">
         <v>53085</v>
       </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v>380100</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2346</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="AF14" t="n">
+        <v>503</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2216,6 +2532,28 @@
       <c r="Z15" t="n">
         <v>53085</v>
       </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>380100</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2346</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="AF15" t="n">
+        <v>503</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2334,6 +2672,28 @@
       <c r="Z16" t="n">
         <v>29201</v>
       </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Colorado Springs, CO</t>
+        </is>
+      </c>
+      <c r="AB16" t="n">
+        <v>4091776</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>19628</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.004796939</v>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Colorado Springs, CO</t>
+        </is>
+      </c>
+      <c r="AF16" t="n">
+        <v>2838</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2452,6 +2812,28 @@
       <c r="Z17" t="n">
         <v>62806</v>
       </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AB17" t="n">
+        <v>2849487</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8811</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.003092136</v>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AF17" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2570,6 +2952,28 @@
       <c r="Z18" t="n">
         <v>62806</v>
       </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AB18" t="n">
+        <v>2849487</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8811</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.003092136</v>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AF18" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2688,6 +3092,28 @@
       <c r="Z19" t="n">
         <v>62806</v>
       </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AB19" t="n">
+        <v>2849487</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8811</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.003092136</v>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Columbus, OH</t>
+        </is>
+      </c>
+      <c r="AF19" t="n">
+        <v>650</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2806,6 +3232,28 @@
       <c r="Z20" t="n">
         <v>375540</v>
       </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Dallas, TX</t>
+        </is>
+      </c>
+      <c r="AB20" t="n">
+        <v>4942306</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15099</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.003055052</v>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>Dallas, TX</t>
+        </is>
+      </c>
+      <c r="AF20" t="n">
+        <v>1779</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2924,6 +3372,28 @@
       <c r="Z21" t="n">
         <v>165731</v>
       </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Denver, CO</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>4565488</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>16888</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.003699057</v>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>Denver, CO</t>
+        </is>
+      </c>
+      <c r="AF21" t="n">
+        <v>1343</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3042,6 +3512,28 @@
       <c r="Z22" t="n">
         <v>25359</v>
       </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Des Moines, IA</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>4153022</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8630</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.002078005</v>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>Des Moines, IA</t>
+        </is>
+      </c>
+      <c r="AF22" t="n">
+        <v>2031</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3160,6 +3652,28 @@
       <c r="Z23" t="n">
         <v>104172</v>
       </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Detroit, MI</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
+        <v>8033441</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>14598</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.001817154</v>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>Detroit, MI</t>
+        </is>
+      </c>
+      <c r="AF23" t="n">
+        <v>1412</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3278,6 +3792,28 @@
       <c r="Z24" t="n">
         <v>38979</v>
       </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Hartford, CT</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>7828484</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>4952</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.000632562</v>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>Hartford, CT</t>
+        </is>
+      </c>
+      <c r="AF24" t="n">
+        <v>1730</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3396,6 +3932,28 @@
       <c r="Z25" t="n">
         <v>155660</v>
       </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Houston, TX</t>
+        </is>
+      </c>
+      <c r="AB25" t="n">
+        <v>3724515</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3551</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.000953413</v>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Houston, TX</t>
+        </is>
+      </c>
+      <c r="AF25" t="n">
+        <v>1096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3514,6 +4072,18 @@
       <c r="Z26" t="n">
         <v>29135</v>
       </c>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>Huntsville, AL</t>
+        </is>
+      </c>
+      <c r="AF26" t="n">
+        <v>2426</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3632,6 +4202,28 @@
       <c r="Z27" t="n">
         <v>56990</v>
       </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Indianapolis, IN</t>
+        </is>
+      </c>
+      <c r="AB27" t="n">
+        <v>4377576</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>13917</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.003179157</v>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>Indianapolis, IN</t>
+        </is>
+      </c>
+      <c r="AF27" t="n">
+        <v>2579</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3750,6 +4342,28 @@
       <c r="Z28" t="n">
         <v>78927</v>
       </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Kansas City, MO</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
+        <v>7378141</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.000223634</v>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Kansas City, MO</t>
+        </is>
+      </c>
+      <c r="AF28" t="n">
+        <v>1881</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3868,6 +4482,28 @@
       <c r="Z29" t="n">
         <v>37577</v>
       </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Las Vegas, NV</t>
+        </is>
+      </c>
+      <c r="AB29" t="n">
+        <v>5383152</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>19722</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.003663653</v>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Las Vegas, NV</t>
+        </is>
+      </c>
+      <c r="AF29" t="n">
+        <v>2669</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3986,6 +4622,28 @@
       <c r="Z30" t="n">
         <v>378427</v>
       </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA</t>
+        </is>
+      </c>
+      <c r="AB30" t="n">
+        <v>8556404</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10407</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.001216282</v>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA</t>
+        </is>
+      </c>
+      <c r="AF30" t="n">
+        <v>1570</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4104,6 +4762,28 @@
       <c r="Z31" t="n">
         <v>21450</v>
       </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Memphis, TN</t>
+        </is>
+      </c>
+      <c r="AB31" t="n">
+        <v>633104</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>3908</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>Memphis, TN</t>
+        </is>
+      </c>
+      <c r="AF31" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4222,6 +4902,28 @@
       <c r="Z32" t="n">
         <v>139644</v>
       </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="AB32" t="n">
+        <v>841971</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7466</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.008867289</v>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="AF32" t="n">
+        <v>1873</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4340,6 +5042,28 @@
       <c r="Z33" t="n">
         <v>44084</v>
       </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Milwaukee, WI</t>
+        </is>
+      </c>
+      <c r="AB33" t="n">
+        <v>6780886</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>17396</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.002565446</v>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>Milwaukee, WI</t>
+        </is>
+      </c>
+      <c r="AF33" t="n">
+        <v>2916</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4458,6 +5182,28 @@
       <c r="Z34" t="n">
         <v>148204</v>
       </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Minneapolis, MN</t>
+        </is>
+      </c>
+      <c r="AB34" t="n">
+        <v>5996594</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>4965</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.00082797</v>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>Minneapolis, MN</t>
+        </is>
+      </c>
+      <c r="AF34" t="n">
+        <v>2365</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4576,6 +5322,28 @@
       <c r="Z35" t="n">
         <v>63391</v>
       </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>Nashville, TN</t>
+        </is>
+      </c>
+      <c r="AB35" t="n">
+        <v>4428727</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8487</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.001916352</v>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>Nashville, TN</t>
+        </is>
+      </c>
+      <c r="AF35" t="n">
+        <v>552</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4694,6 +5462,28 @@
       <c r="Z36" t="n">
         <v>18261</v>
       </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>New Orleans, LA</t>
+        </is>
+      </c>
+      <c r="AB36" t="n">
+        <v>390144</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2408</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>New Orleans, LA</t>
+        </is>
+      </c>
+      <c r="AF36" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4812,6 +5602,28 @@
       <c r="Z37" t="n">
         <v>613861</v>
       </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>New York City, NY</t>
+        </is>
+      </c>
+      <c r="AB37" t="n">
+        <v>3554473</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>13903</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.00391141</v>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>New York City, NY</t>
+        </is>
+      </c>
+      <c r="AF37" t="n">
+        <v>1241</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4930,6 +5742,28 @@
       <c r="Z38" t="n">
         <v>28722</v>
       </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>Oklahoma City, OK</t>
+        </is>
+      </c>
+      <c r="AB38" t="n">
+        <v>655057</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>4044</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>Oklahoma City, OK</t>
+        </is>
+      </c>
+      <c r="AF38" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5048,6 +5882,28 @@
       <c r="Z39" t="n">
         <v>31174</v>
       </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Omaha, NE</t>
+        </is>
+      </c>
+      <c r="AB39" t="n">
+        <v>2319042</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>17443</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.00752164</v>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>Omaha, NE</t>
+        </is>
+      </c>
+      <c r="AF39" t="n">
+        <v>2939</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5166,6 +6022,28 @@
       <c r="Z40" t="n">
         <v>76085</v>
       </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="AB40" t="n">
+        <v>4174499</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7299</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.001748473</v>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="AF40" t="n">
+        <v>1327</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5284,6 +6162,28 @@
       <c r="Z41" t="n">
         <v>159251</v>
       </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Philadelphia, PA</t>
+        </is>
+      </c>
+      <c r="AB41" t="n">
+        <v>1629159</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>16479</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.010115035</v>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>Philadelphia, PA</t>
+        </is>
+      </c>
+      <c r="AF41" t="n">
+        <v>2844</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5402,6 +6302,28 @@
       <c r="Z42" t="n">
         <v>172709</v>
       </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Phoenix, AZ</t>
+        </is>
+      </c>
+      <c r="AB42" t="n">
+        <v>5156799</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>17519</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.003397263</v>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>Phoenix, AZ</t>
+        </is>
+      </c>
+      <c r="AF42" t="n">
+        <v>2621</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5520,6 +6442,28 @@
       <c r="Z43" t="n">
         <v>58884</v>
       </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>Pittsburgh, PA</t>
+        </is>
+      </c>
+      <c r="AB43" t="n">
+        <v>6091495</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.000225889</v>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>Pittsburgh, PA</t>
+        </is>
+      </c>
+      <c r="AF43" t="n">
+        <v>1192</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5638,6 +6582,28 @@
       <c r="Z44" t="n">
         <v>123486</v>
       </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Portland, OR</t>
+        </is>
+      </c>
+      <c r="AB44" t="n">
+        <v>551157</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>7579</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.013751073</v>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>Portland, OR</t>
+        </is>
+      </c>
+      <c r="AF44" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5756,6 +6722,28 @@
       <c r="Z45" t="n">
         <v>123486</v>
       </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Portland, OR</t>
+        </is>
+      </c>
+      <c r="AB45" t="n">
+        <v>551157</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>7579</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.013751073</v>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>Portland, OR</t>
+        </is>
+      </c>
+      <c r="AF45" t="n">
+        <v>1057</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5874,6 +6862,28 @@
       <c r="Z46" t="n">
         <v>34627</v>
       </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Providence, RI</t>
+        </is>
+      </c>
+      <c r="AB46" t="n">
+        <v>8220528</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8305</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.001010276</v>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>Providence, RI</t>
+        </is>
+      </c>
+      <c r="AF46" t="n">
+        <v>1448</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5992,6 +7002,28 @@
       <c r="Z47" t="n">
         <v>77377</v>
       </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Raleigh, NC</t>
+        </is>
+      </c>
+      <c r="AB47" t="n">
+        <v>8817088</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>4642</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.000526478</v>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>Raleigh, NC</t>
+        </is>
+      </c>
+      <c r="AF47" t="n">
+        <v>1108</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6110,6 +7142,28 @@
       <c r="Z48" t="n">
         <v>55709</v>
       </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>Sacramento, CA</t>
+        </is>
+      </c>
+      <c r="AB48" t="n">
+        <v>1757923</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>9704</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.005520151</v>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>Sacramento, CA</t>
+        </is>
+      </c>
+      <c r="AF48" t="n">
+        <v>2909</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6228,6 +7282,28 @@
       <c r="Z49" t="n">
         <v>73038</v>
       </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>Salt Lake City, UT</t>
+        </is>
+      </c>
+      <c r="AB49" t="n">
+        <v>2954941</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>17714</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.005994705</v>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>Salt Lake City, UT</t>
+        </is>
+      </c>
+      <c r="AF49" t="n">
+        <v>1735</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6346,6 +7422,28 @@
       <c r="Z50" t="n">
         <v>55069</v>
       </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>San Antonio, TX</t>
+        </is>
+      </c>
+      <c r="AB50" t="n">
+        <v>668467</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>6449</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.009647447</v>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>San Antonio, TX</t>
+        </is>
+      </c>
+      <c r="AF50" t="n">
+        <v>1885</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6464,6 +7562,28 @@
       <c r="Z51" t="n">
         <v>123237</v>
       </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>San Diego, CA</t>
+        </is>
+      </c>
+      <c r="AB51" t="n">
+        <v>6611000</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2991</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.000452428</v>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>San Diego, CA</t>
+        </is>
+      </c>
+      <c r="AF51" t="n">
+        <v>2394</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6582,6 +7702,28 @@
       <c r="Z52" t="n">
         <v>380190</v>
       </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="AB52" t="n">
+        <v>7349695</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>13621</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.001853274</v>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>San Francisco, CA</t>
+        </is>
+      </c>
+      <c r="AF52" t="n">
+        <v>659</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6700,6 +7842,28 @@
       <c r="Z53" t="n">
         <v>374138</v>
       </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>San Jose, CA</t>
+        </is>
+      </c>
+      <c r="AB53" t="n">
+        <v>6721458</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>15828</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.002354846</v>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>San Jose, CA</t>
+        </is>
+      </c>
+      <c r="AF53" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6818,6 +7982,28 @@
       <c r="Z54" t="n">
         <v>298361</v>
       </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="AB54" t="n">
+        <v>2522189</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>18032</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.007149345</v>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>Seattle, WA</t>
+        </is>
+      </c>
+      <c r="AF54" t="n">
+        <v>803</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6936,6 +8122,28 @@
       <c r="Z55" t="n">
         <v>78905</v>
       </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>St. Louis, MO</t>
+        </is>
+      </c>
+      <c r="AB55" t="n">
+        <v>2150021</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>14762</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.006865979</v>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>St. Louis, MO</t>
+        </is>
+      </c>
+      <c r="AF55" t="n">
+        <v>456</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7054,6 +8262,28 @@
       <c r="Z56" t="n">
         <v>18764</v>
       </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>Trenton, NJ</t>
+        </is>
+      </c>
+      <c r="AB56" t="n">
+        <v>84907</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>524</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>Trenton, NJ</t>
+        </is>
+      </c>
+      <c r="AF56" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7171,6 +8401,28 @@
       </c>
       <c r="Z57" t="n">
         <v>380232</v>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>Washington DC, DC</t>
+        </is>
+      </c>
+      <c r="AB57" t="n">
+        <v>720687</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>4449</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.00617322</v>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>Washington DC, DC</t>
+        </is>
+      </c>
+      <c r="AF57" t="n">
+        <v>899</v>
       </c>
     </row>
   </sheetData>
